--- a/outputs/PITTSBURG1.xlsx
+++ b/outputs/PITTSBURG1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Motivations, Information Processing Style
-Why: The page primarily displays repository details and file contents but does not prominently feature or link to a list of issues. ABI might not immediately realize that this page could lead to finding issues to work on, as the information related to issues is not evident or highlighted. ABI's comprehensive information processing style would require clearer navigation or indications to feel assured that this page is a step toward finding a list of issues.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page, which primarily lists files and folders related to the project. There is no clear indication or section that explicitly mentions "issues" or "bugs" that need to be addressed. Given Abi's preference for familiar methods and comprehensive information processing style, they would likely not consider this page as a step toward finding a list of issues. Additionally, Abi's low computer self-efficacy means they might not feel confident navigating through the project files to find the issues section.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style
-Why: Scrolling down aligns with ABI's comprehensive information processing style. ABI is likely to read through the page to gather more information. The action of scrolling down is straightforward and does not require technical expertise or induce any risk, making it a comfortable action for ABI.</t>
+Facets: 2. Information Processing Style
+Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather all available information before making decisions, and scrolling down is a natural action to see if more relevant information is available further down the page. This action does not require high computer self-efficacy or involve any risk, making it a comfortable step for Abi.</t>
         </is>
       </c>
     </row>
@@ -443,17 +443,17 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Motivations, Information Processing Style
-Why: After scrolling down, ABI will see more information about the repository but still won't find any direct indication of where to find the list of issues. The page contains details about the project and files but does not provide clear navigation or links to issues, which can lead ABI to feel uncertain about making progress toward their goal. This lack of clear direction does not align with ABI's comprehensive information processing style, and it may demotivate ABI from continuing with the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, Abi will not find any information related to issues or where to find them. The page primarily contains project details, files, and a brief description of the project. There is no section or indication that points to a list of issues. Given Abi's comprehensive information processing style, they would not feel they are making progress toward their goal of finding issues. Additionally, Abi's low computer self-efficacy means they might feel uncertain about what to do next, as the page does not provide clear guidance on finding issues.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Information Processing Style, Learning Style
-Why: The issue icon on the left sidebar is a familiar and commonly used feature in many repository management systems like GitLab or GitHub. Clicking on an icon in the sidebar is a low-risk action that aligns with ABI's preference for clear, process-oriented steps. The icon is also clearly labeled, which helps ABI understand what action to take next. Thus, ABI is likely to recognize this as the next step toward finding the list of issues.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The issue icon on the left side is not explicitly labeled, and Abi might not be familiar with the icon's meaning due to their low computer self-efficacy. Abi prefers process-oriented learning and clear instructions, and the page does not provide any guidance or indication that clicking the icon will lead to the list of issues. This lack of clarity and explicit instruction might make Abi hesitant to click the icon, as they are risk-averse and prefer predictable actions.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking the issue icon, ABI will land on a page that clearly lists the issues, meeting the subgoal of finding a list of issues to work on. The issues are categorized with labels and descriptions, which aligns well with ABI's comprehensive information processing style. This page provides all the necessary information ABI needs to proceed, confirming progress toward the goal and ensuring ABI that the right action was taken.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, Abi will land on a page that clearly lists issues, complete with titles, descriptions, and other relevant details. This page directly aligns with Abi's goal of finding a list of issues to work on. The comprehensive list and detailed information provided will help Abi feel confident that they are making progress toward their goal. The clear layout and relevant information cater to Abi's comprehensive information processing style, making it easy for them to understand that they have done the right thing and are on the right track.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Selecting an issue to work on is a logical next step after finding a list of issues. This aligns with ABI's overall objective of finding an issue to work on. The page displays a list of issues with relevant details, making it clear that selecting one of these issues is part of the process. This step is consistent with ABI's motivations to accomplish tasks and their comprehensive information processing style.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The page clearly lists various issues with detailed descriptions, making it evident that selecting an issue to work on is a logical next step. Abi's motivation to accomplish tasks and their comprehensive information processing style will lead them to consider this as a necessary step toward achieving the overall use case. The structured and detailed presentation of issues aligns well with Abi's need for comprehensive information, making it clear that selecting an issue is part of the process.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page clearly lists various issues with detailed descriptions and labels, which aligns with ABI's comprehensive information processing style. ABI is motivated to find an issue to work on, and reading through the list is a logical step in making an informed decision. The structure and presentation of the information make it easy for ABI to understand and proceed with this action.</t>
+Facets: 2. Information Processing Style
+Why: The page provides a clear and detailed list of issues, which aligns well with Abi's comprehensive information processing style. Abi will know to read through the list to gather information about the issues, as the titles and descriptions are prominently displayed and easy to understand. This action is straightforward and does not require high computer self-efficacy or involve any risk, making it a comfortable step for Abi to take. The page is well-organized and provides all the necessary information for Abi to proceed with selecting an issue to work on.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: The page provides a clear and organized list of issues with details such as the title, importance, tags, and the number of comments. This structure allows ABI to comprehensively process the information and select an issue based on their preferences and skills. The clear presentation and detailed labeling help ABI feel confident that they are making progress toward their goal of finding an issue to work on, thus meeting their motivations and information processing style needs.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After reading through the list, Abi will see detailed descriptions, tags, and other relevant information for each issue. This comprehensive information will help Abi understand the nature of each issue and make an informed decision about which one to work on. The clear and structured presentation of issues aligns with Abi's comprehensive information processing style, and the detailed information provided will make Abi feel confident that they are making progress toward their goal. The page provides all the necessary information for Abi to select an issue, ensuring they know they are on the right track.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Learning Style, Motivations
-Why: The page provides a clear list of issues with clickable titles, making it intuitive for ABI to understand that they need to click on an issue to get more details. The titles are hyperlinks, which is a familiar web convention for accessing more information. This aligns with ABI's comprehensive information processing style and process-oriented learning style. The clear presentation ensures that ABI knows what to do at this step and feels confident in taking the action, thus aligning with ABI's motivations to accomplish the task.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is well-organized and clearly lists issues with detailed descriptions, making it intuitive for Abi to understand that clicking on an issue will provide more information. The action of clicking on an issue is straightforward and does not require high computer self-efficacy. Additionally, the comprehensive information provided on the page aligns with Abi's information processing style, making it clear that selecting an issue is the next logical step. The page design and layout support Abi in knowing what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: After clicking on an issue, ABI lands on a page that provides minimal information about the issue. The page lacks detailed descriptions, steps to reproduce the issue, or specific comments that might help ABI understand the issue comprehensively. This can make ABI uncertain about whether they have made progress toward their goal. Given ABI's comprehensive information processing style, the lack of detailed information may make ABI feel they have not done the right thing and do not have all the information they need. Additionally, ABI's low computer self-efficacy might make them hesitant to proceed without clear, detailed guidance.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on an issue, Abi lands on a page that provides some information about the issue, but it is not comprehensive. The page lacks detailed descriptions, steps to reproduce, or any specific information about the issue's context. Given Abi's comprehensive information processing style, they might not feel they have all the necessary information to understand the issue fully. Additionally, the page layout might be overwhelming or confusing for someone with low computer self-efficacy, as it includes various sections and options that are not immediately clear. Abi might not feel confident that they are making progress toward their goal due to the lack of detailed information and clear guidance.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG1.xlsx
+++ b/outputs/PITTSBURG1.xlsx
@@ -424,216 +424,228 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Looking at this GitLab repository interface for FLOSSCoach, yes, there's clear evidence that the needs of newcomers like Abi were considered in the design:
-1. The left sidebar prominently displays an "Issues" section that is easily visible and accessible
-2. The project appears to be specifically designed for newcomers to open source, as stated in the README: "We are a community aimed to help newcomers get into Free/Libre Open Source Software (FLOSS)"
-This aligns well with Abi's problem-solving style because:
-- She likes to be thorough and methodical in learning environments
-- She prefers clear, well-organized navigation paths
-- She appreciates when information is explicitly presented rather than having to infer where things are
-The prominent placement of the "Issues" section in the standard GitLab navigation would appeal to Abi's characteristics of:
-- Wanting to make sure she's doing the right thing
-- Preferring to have clear indicators of where to find information
-- Taking a comprehensive approach to understanding the system
-So yes, the interface design suggests the developers considered users like Abi by making the issues section easily discoverable through clear navigation elements, which supports her methodical approach to finding tasks to work on.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Motivations
+Why: ABI would consider finding the list of issues as a necessary first step because:
+1. Her comprehensive information processing style means she wants to gather complete information before acting
+2. She is motivated to find issues as it directly relates to her goal of finding work for newcomers
+3. The left sidebar clearly shows an "Issues" section which aligns with her need for clear, structured navigation
+4. The interface presents this information in a straightforward way without requiring any unfamiliar technical knowledge or risky exploration
+The layout is simple and hierarchical, making it easy for ABI to understand that checking the Issues section would be a logical step toward her goal of finding newcomer-friendly tasks.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Looking at this GitLab repository page, ABI likely will NOT know what to do at this step. Here's why:
-1. While the page shows a repository structure, the left sidebar does have an "Issues" section, but it might not be immediately obvious to Abi who:
-- Is comprehensive in their approach
-- Likes to fully understand before proceeding
-- Prefers step-by-step instructions
-- Has lower computer self-efficacy
-2. Problems for Abi:
-- There are multiple navigation options (Code, Repository, Branches, Issues, etc.)
-- Nothing explicitly indicates "Click here to find beginner-friendly issues"
-- The current view shows code files rather than issues, which could be confusing
-- Scrolling down the page only shows README content, not issues
-3. Better approach would be:
-- Have clear navigation indicators
-- Provide explicit directions for finding issues
-- Include visual cues or markers for the Issues section
-- Maybe have a "New Contributors Start Here" section
-For Abi to successfully navigate to issues, the interface should provide more explicit guidance and reassurance that she's taking the correct steps. The current layout assumes users are familiar with Git repository structures, which may not align with Abi's careful, methodical approach to learning new systems.</t>
+          <t>Answer: YES
+Facets:
+1. Information Processing Style
+2. Learning Style
+3. Computer Self-Efficacy
+Why: ABI will feel comfortable scrolling down the page because:
+1. Scrolling aligns with her comprehensive information processing style - she wants to gather all available information before proceeding
+2. Scrolling is a basic, familiar action that doesn't require technical knowledge, which suits her low computer self-efficacy
+3. The page shows a standard layout with content extending below the viewport, making it clear that scrolling is needed to see more information
+4. The process-oriented learning style of ABI is supported as scrolling is a straightforward, step-by-step way to review content
+The action of scrolling is a safe, predictable way for ABI to gather information without any risk of making mistakes or getting lost in the interface.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Based on the image shown, scrolling down the webpage is not an effective action for finding issues to work on. The image shows the main repository view of FLOSSCoach, with various folders and files listed, but the Issues section is actually visible in the left sidebar navigation menu. By scrolling, Abi will only see more of the repository contents and README information, not the list of issues.
-Abi would NOT know they're making progress toward their goal because:
-1. Scrolling down only reveals more repository files and documentation
-2. The Issues section is clearly accessible through the left sidebar menu (marked with an icon)
-3. The content visible after scrolling (showing Technologies, Features, Code style etc.) doesn't help with finding issues to work on
-For Abi to make progress toward their goal, they should:
-- Look at the left navigation panel
-- Click on the "Issues" menu item (which is visible without scrolling)
-The current action of scrolling down would not provide the information needed to find issues for newcomers to work on. Abi needs to navigate to the dedicated Issues section instead.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+Why: After scrolling, ABI will not feel confident she's making progress because:
+1. Her comprehensive information processing style isn't satisfied - scrolling reveals general project information (Features, Technologies, Code style) but nothing specific about where to find issues for newcomers
+2. The content after scrolling doesn't provide clear direction about where to find issues or confirm she's on the right path
+3. With her low computer self-efficacy, the lack of explicit information about issues would make her uncertain if she's looking in the right place
+4. Her risk-averse nature would make her hesitant to proceed without clear confirmation that she's on the right track
+5. The information shown after scrolling is about general project setup and technologies, which doesn't help her achieve her specific goal of finding newcomer issues
+The page content after scrolling doesn't provide the specific information ABI needs about issues, leaving her uncertain about her progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Based on the GitLab repository interface shown in the image, yes, ABI should be able to find and click on the Issues icon because:
-1. The Issues menu item is clearly visible on the left sidebar navigation menu
-2. It has a recognizable icon (an exclamation point in a circle) that is a common symbol for issues/tickets
-3. It's labeled clearly as "Issues" with text next to the icon
-4. It's positioned in a prominent location in the main navigation menu where users typically look for such features
-However, since Abi tends to be hesitant and likes to thoroughly understand her actions before taking them:
-- The visuals are clear enough that she can be confident she's clicking the right thing
-- The term "Issues" is standard Git terminology that she would likely recognize if she has any prior Git experience
-- There's no risk of losing work or making unwanted changes just by clicking to view issues
-The straightforward labeling and standard positioning make this a relatively low-risk action that aligns well with Abi's careful, methodical approach to learning new systems.
-This step appears to be well-designed for users like Abi who prefer clear, unambiguous navigation options.</t>
+          <t>Answer: YES
+Facets:
+1. Computer Self-Efficacy
+2. Learning Style
+3. Motivations
+Why: ABI will feel comfortable clicking the Issues icon because:
+1. The Issues section is clearly visible in the left sidebar with a recognizable icon and label
+2. It's a straightforward, process-oriented action that aligns with her learning style
+3. The interface presents a clear, familiar navigation pattern that doesn't require advanced technical knowledge
+4. The Issues icon has a number badge (showing count of issues), which provides additional confirmation that this is where issues are tracked
+5. The action directly relates to her goal of finding issues for newcomers
+6. The location and presentation of the Issues section follows standard GitHub conventions, which would be familiar to ABI even with her lower computer self-efficacy
+The clear labeling and conventional placement make this a safe, obvious choice for ABI to progress toward her goal without requiring any risky exploration or technical expertise.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Yes, after clicking on the Issues icon on the left side, Abi will know they made progress because:
-1. The page clearly shows a list of issues, indicating they've reached the right place to find potential work items
-2. The interface provides clear visual feedback:
-   - The "Issues" section is highlighted/selected in the left navigation
-   - The main content area displays a list of issues with relevant details
-   - The page shows useful information like issue numbers, titles, labels (like "BUG"), and when issues were created/updated
-3. The interface shows there are:
-   - 19 Open issues
-   - 133 Closed issues
-   - 152 Total issues
-This validates that Abi has successfully found where the issues are listed and can now browse through them to find something appropriate to work on. The information is well-organized and includes status indicators, timestamps, and labels that will help in identifying suitable issues for newcomers.
-The page layout and structure make it clear that this is indeed the issues list, confirming to Abi that they've taken the correct action to achieve their goal of finding issues to work on.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. None of the Above (Information Overload)
+Why: ABI will not feel confident she's making progress because:
+1. While she successfully reached the issues page, there's no clear indication which issues are suitable for newcomers
+2. Her comprehensive information processing style is overwhelmed by the many issues listed without clear categorization for newcomers
+3. With her low computer self-efficacy, the technical terms and labels (like "BUG", "devops") might be intimidating
+4. Her risk-averse nature would make her hesitant to proceed without clear guidance about which issues are appropriate for her skill level
+5. None of the Above: The page presents too much information at once without any filtering or organization specifically for newcomers, which can be overwhelming
+6. The search/filter functionality exists but without clear indication of how to use it to find newcomer-friendly issues
+While she's found the issues list, the lack of clear organization or labeling for newcomer-friendly issues means ABI won't be confident she's making progress toward her specific goal of finding issues for newcomers.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Yes, ABI would likely have thought about selecting an issue as a step toward achieving the use case of finding work as a newcomer. Here's why:
-1. Comprehensive Process-Oriented Approach:
-- ABI tends to be very methodical and likes to thoroughly understand processes
-- She would recognize that browsing and selecting an appropriate issue is a necessary step before actually starting work
-2. Risk Minimization:
-- The issue list shows different types of issues with labels like "BUG" and difficulty indicators
-- ABI would appreciate this information as it helps assess which issues match her current skill level and comfort zone
-3. Information Gathering:
-- The interface shows creation dates, status updates, and issue descriptions
-- This aligns with ABI's preference for gathering comprehensive information before making decisions
-4. Technological Self-Doubts:
-- ABI might take extra time reviewing the issues to ensure she chooses one that won't lead to immediate frustration
-- She would likely look for issues that are well-documented and seem more approachable
-5. Learning Style:
-- The structured list format with clear labels and categorization would appeal to ABI's methodical learning style
-- She can take her time to read through descriptions and understand what each issue entails
-So yes, this would definitely be a step ABI would consider important in the process, as it allows her to carefully evaluate her options before committing to work on an issue.</t>
+          <t>Answer: YES
+Facets:
+1. Motivations
+2. Information Processing Style
+3. Attitude Toward Risk
+Why: ABI would consider selecting an issue as a necessary step because:
+1. Her motivation to find work for newcomers aligns with the need to select a specific issue
+2. Her comprehensive information processing style means she understands that reviewing and selecting an appropriate issue is a crucial step in the process
+3. Her risk-averse nature means she recognizes the importance of carefully choosing an issue that matches her capabilities
+4. The page shows a list of issues with descriptions and labels, which provides the kind of structured information she needs to make a decision
+Even though the page might be overwhelming, ABI would understand that selecting an issue is a logical and necessary step toward her goal of finding work as a newcomer. The presence of detailed issue descriptions and labels (like "BUG") provides the kind of information she needs to make an informed decision, aligning with her careful approach to decision-making.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Looking at the GitLab issues page, ABI would be able to read through the list, but might face some challenges:
-Helpful aspects for Abi:
-1. The issues are clearly listed with titles that describe the problem
-2. Issues are labeled with tags like "BUG" which helps categorize them
-3. The list shows when issues were created and last updated
-4. Each issue has a number (#) making them easy to reference
-Potential challenges for Abi:
-1. There's no clear indication of which issues are good for beginners/newcomers
-2. Some issues might require technical knowledge that isn't immediately apparent from the titles
-3. The technical complexity of each issue isn't labeled
-4. Abi, being process-oriented and lower in self-confidence, might hesitate without explicit "good first issue" or "beginner-friendly" labels
-Recommendation for improvement:
-To make this more Abi-friendly, the project could:
-1. Add difficulty labels (easy, medium, hard)
-2. Include "good first issue" tags for beginner-friendly tasks
-3. Provide more context in issue titles about required skills
-4. Add a filter specifically for newcomer-friendly issues
-While Abi can read through the list, she might not feel confident about which issue is appropriate for her skill level without more explicit guidance.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. None of the Above (Information Overload)
+Why: ABI will struggle to read through the list effectively because:
+1. Her comprehensive information processing style is challenged by:
+   - No clear categorization or labeling for newcomer-friendly issues
+   - Mixed technical terms and labels without explanation (like "BUG", "devops")
+   - No guidance on which issues are appropriate for beginners
+2. Her low computer self-efficacy means:
+   - Technical terminology in issue titles may be intimidating
+   - Uncertainty about understanding the technical requirements of each issue
+3. Her risk-averse nature is challenged because:
+   - No clear indication of issue difficulty levels
+   - Uncertainty about which issues are safe for newcomers to attempt
+4. None of the Above:
+   - The page presents too many issues at once without proper organization
+   - No filtering system specifically for newcomer-friendly issues
+   - Lack of clear indicators for issue complexity or prerequisites
+While the list is readable, the lack of newcomer-friendly organization and guidance would make ABI uncertain about how to effectively process and evaluate the issues.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Looking at this GitLab/GitHub issues page, yes, Abi can know they're making progress for several reasons:
-1. Information Visibility:
-- Each issue has clear titles describing the problem
-- Issues are labeled with tags like "BUG" where applicable
-- Creation dates and update times are visible
-- Some issues show additional context like comment counts
-2. Issue Complexity Indicators:
-- Some issues appear simpler (like "Build status failed tag in readme")
-- Others are more complex (like "Collect information about user skills based on their Github activity")
-- Labels help indicate the type of work needed
-3. Progress Confirmation:
-- The list is well-organized and can be sorted (note the "Created date" filter)
-- Abi can systematically go through each issue
-- Status indicators show which issues are being worked on or discussed
-4. Beginner-Friendly Options:
-- Some issues appear more straightforward and could be good for newcomers
-- The descriptions are generally clear and specific
-- Issue numbers are clearly displayed for reference
-However, Abi might want additional information like:
-- Which issues are specifically tagged for newcomers
-- Difficulty levels of each issue
-- Prerequisites or required skills
-- More detailed descriptions (which would be visible when clicking an issue)
-To be completely certain of making the right choice, Abi might need to click into individual issues to read their full descriptions and requirements.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. None of the Above (Information Overload)
+Why: After reading through the list, ABI won't feel confident she's making progress because:
+1. Information Processing Style issues:
+   - No clear organization or categorization of issues by difficulty level
+   - Can't comprehensively understand which issues are appropriate for newcomers
+   - Mixed technical and non-technical descriptions without clear context
+2. Computer Self-Efficacy concerns:
+   - Technical terms and labels (like "BUG", "devops") without explanation
+   - Uncertainty about understanding the technical requirements
+   - No indication of required skill levels
+3. Risk-averse nature is challenged:
+   - No clear indicators of which issues are "safe" for newcomers
+   - Uncertainty about potential complications or prerequisites
+   - No way to assess the risk level of taking on specific issues
+4. None of the Above:
+   - Information overload with too many issues displayed at once
+   - Lack of newcomer-friendly filters or tags
+   - No clear guidance on how to evaluate issue difficulty
+Even after reading, ABI won't be confident she's found an appropriate issue because the page lacks the structured, newcomer-friendly information she needs to make an informed decision.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Looking at this GitLab/GitHub issues page, ABI should be able to take this action but might face some hesitation and uncertainty. Here's why:
-Positives:
-1. The issues are clearly listed with titles that describe the problem
-2. There are visual indicators like labels (BUG, devops) that help categorize issues
-3. Each issue shows when it was created and last updated
-4. Issue numbers are clearly visible (#142, #136, etc.)
-Challenges for ABI:
-1. As a process-oriented and self-doubting persona, ABI might feel overwhelmed by the number of issues (19 open issues)
-2. Without clear difficulty labels or "good first issue" tags, ABI might not know which issues are appropriate for newcomers
-3. Some technical terms in issue titles (like "NAU logo", "Creative Commons") might make ABI unsure if she has the required knowledge
-4. ABI might need more context about each issue before feeling confident about selecting one
-Recommendations to improve:
-1. Add difficulty labels (easy, medium, hard)
-2. Include "good first issue" tags for newcomer-friendly tasks
-3. Provide more context in issue titles or add short descriptions
-4. Group issues by category or required skills
-While ABI can physically click on an issue, she might spend considerable time analyzing which one to choose and might not feel confident about her selection without more guidance about issue difficulty levels and prerequisites.</t>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Attitude Toward Risk
+3. Information Processing Style
+4. None of the Above (Lack of Guidance)
+Why: ABI will struggle to select/click an appropriate issue because:
+1. Computer Self-Efficacy:
+   - Technical terminology in issue titles may be intimidating
+   - No clear indication of skill level requirements
+   - Uncertainty about understanding the technical requirements
+2. Attitude Toward Risk:
+   - Fear of selecting an issue that's too complex
+   - No clear indicators of which issues are safe for newcomers
+   - Hesitant to click without knowing if it's an appropriate choice
+3. Information Processing Style:
+   - Cannot form a complete understanding of which issue is suitable
+   - Lack of comprehensive information about issue difficulty levels
+   - No clear categorization for newcomer-friendly issues
+4. None of the Above:
+   - No guidance or indicators for newcomer-appropriate issues
+   - Missing clear labels or tags for beginner-friendly tasks
+   - No filtering system to help identify suitable issues
+Without clear indicators of which issues are appropriate for newcomers, ABI would be hesitant to click on any specific issue, fearing she might choose one beyond her capabilities.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Looking at the issue page shown in the image, I can analyze whether there would be clear progress indicators and necessary information available:
-Progress Indicators:
-1. The issue status is clearly shown as "Open" with a green indicator
-2. The interface shows various sections like Child Items, Linked Items, and Activity that provide issue context
-3. The sidebar displays important metadata like Assignees, Labels, Milestone, Due date etc.
-Information Available:
-1. Issue title and description are visible
-2. Creation date and author information is shown
-3. Options to add labels, assignees, and other metadata are available 
-4. A comment section exists to ask questions or provide updates
-However, there are some potential uncertainties:
-1. The description only contains "test test test" which isn't informative
-2. No labels or other metadata are set to indicate difficulty level or type of issue
-3. No clear indicators of whether this is suitable for newcomers
-Based on these observations, while the interface itself provides good structure and features, this specific issue lacks sufficient information for a newcomer to confidently know they've selected an appropriate task. They would likely need to:
-1. Look for issues specifically tagged for newcomers
-2. Find issues with clearer descriptions
-3. Possibly ask questions in comments to determine suitability
-So while they can technically select/click the issue, they may not be confident they're making progress toward their goal of finding an appropriate newcomer task due to the limited information provided in this particular issue.</t>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Attitude Toward Risk
+4. None of the Above (Lack of Essential Information)
+Why: After clicking an issue, ABI won't feel confident she's made progress because:
+1. Information Processing Style:
+   - The issue details page lacks comprehensive information about difficulty level
+   - No clear context about whether this is suitable for newcomers
+   - The description "test test test" is too vague for her thorough information needs
+2. Computer Self-Efficacy:
+   - Technical interface elements without clear explanation
+   - Unclear what various buttons and options do (like Child items, Linked items)
+   - No indication of required technical skills or prerequisites
+3. Attitude Toward Risk:
+   - Uncertainty about whether this issue is appropriate for her skill level
+   - No clear guidance about what would be required to complete this issue
+   - Multiple unfamiliar options and features create anxiety about next steps
+4. None of the Above:
+   - Missing crucial information about:
+     * Required skills
+     * Difficulty level
+     * Expected time commitment
+     * Where to start
+     * Whether it's newcomer-friendly
+The page doesn't provide the structured, detailed information ABI needs to confirm she's selected an appropriate issue for a newcomer.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG1.xlsx
+++ b/outputs/PITTSBURG1.xlsx
@@ -433,7 +433,7 @@
 2. She is motivated to find issues as it directly relates to her goal of finding work for newcomers
 3. The left sidebar clearly shows an "Issues" section which aligns with her need for clear, structured navigation
 4. The interface presents this information in a straightforward way without requiring any unfamiliar technical knowledge or risky exploration
-The layout is simple and hierarchical, making it easy for ABI to understand that checking the Issues section would be a logical step toward her goal of finding newcomer-friendly tasks.</t>
+The layout is familiar (similar to many repository interfaces) and the "Issues" section is clearly visible in the navigation menu, making it a logical and comfortable first step for ABI to achieve her goal.</t>
         </is>
       </c>
     </row>
@@ -445,207 +445,227 @@
 1. Information Processing Style
 2. Learning Style
 3. Computer Self-Efficacy
-Why: ABI will feel comfortable scrolling down the page because:
-1. Scrolling aligns with her comprehensive information processing style - she wants to gather all available information before proceeding
-2. Scrolling is a basic, familiar action that doesn't require technical knowledge, which suits her low computer self-efficacy
-3. The page shows a standard layout with content extending below the viewport, making it clear that scrolling is needed to see more information
-4. The process-oriented learning style of ABI is supported as scrolling is a straightforward, step-by-step way to review content
-The action of scrolling is a safe, predictable way for ABI to gather information without any risk of making mistakes or getting lost in the interface.</t>
+Why: ABI would be comfortable scrolling down the page because:
+1. Scrolling aligns with her comprehensive information processing style - she wants to gather all available information before making decisions
+2. The page has a familiar layout with clear sections and readable text, which matches her preference for process-oriented learning
+3. Scrolling is a basic, familiar action that doesn't challenge her computer self-efficacy
+4. The page shows clear sections with headings (like Features, Technologies, etc.) which suggests to ABI that there might be more relevant information below
+5. This is a low-risk action that doesn't require any technical knowledge or unfamiliar interactions
+The action of scrolling is straightforward and allows ABI to gather information systematically, which aligns with her characteristics and wouldn't cause her any anxiety or uncertainty.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Motivations
+Why: After scrolling, ABI would not feel confident she's making progress because:
+1. Her comprehensive information processing style isn't satisfied - while scrolling reveals general information about the project (Features, Technologies, etc.), there's no specific information about where to find issues or how to access them
+2. The content shown after scrolling doesn't provide clear guidance about finding issues for newcomers, which doesn't align with her goal
+3. With her low computer self-efficacy, the lack of direct information about issues would make her uncertain if she's on the right track
+4. While she sees a "Contribute" section, it doesn't explicitly mention or link to issues, which doesn't give her confidence she's moving in the right direction
+5. The information presented is more about project setup and technologies rather than helping find issues for newcomers, which doesn't satisfy her motivation to find newcomer-friendly issues
+The page content after scrolling doesn't provide the specific information ABI needs to confirm she's making progress toward finding issues for newcomers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets:
+1. Computer Self-Efficacy
+2. Learning Style
+3. Motivations
+4. Attitude toward Risk
+Why: ABI would feel comfortable clicking the Issues icon because:
+1. The Issues section is clearly visible in the left navigation menu with a recognizable icon and label
+2. It's a straightforward, process-oriented action that aligns with her learning style
+3. The location and presentation of the Issues section follows a familiar pattern seen in many repository interfaces, which helps with her low computer self-efficacy
+4. The clear labeling ("Issues") directly relates to her goal of finding issues, satisfying her motivation
+5. It's a low-risk action as the purpose is clearly indicated, which aligns with her risk-averse nature
+6. The icon has a number badge (showing active issues), which provides additional confirmation that this is where issues are tracked
+The clear labeling and familiar placement make this a safe, obvious choice for ABI to progress toward her goal without requiring any risky exploration or technical knowledge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets:
+1. Information Processing Style
+2. Computer Self-Efficacy
+3. Learning Style
+4. None of the Above (Information Overload)
+Why: Although ABI has reached the issues page, she would not feel confident she's making progress because:
+1. Her comprehensive information processing style is overwhelmed by:
+   - Multiple tabs (Open, Closed, All)
+   - Various filtering options
+   - No clear indication of which issues are suitable for newcomers
+2. With her low computer self-efficacy:
+   - Technical terms and labels like "BUG" might be intimidating
+   - No clear guidance on which issues would be appropriate for her skill level
+   - Various icons and labels whose meanings aren't explained
+3. Her process-oriented learning style isn't supported:
+   - No clear instructions or guidance on how to identify newcomer-friendly issues
+   - No obvious categorization or labeling for beginner-friendly tasks
+4. Information overload (None of the Above):
+   - Too many issues listed without clear organization
+   - Multiple technical issues that might seem overwhelming
+   - No clear pathway to identify which issues are appropriate for newcomers
+The page doesn't provide the structured, clear guidance ABI needs to confidently identify issues suitable for newcomers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets:
+1. Motivations
+2. Information Processing Style
+3. Attitude toward Risk
+Why: ABI would consider selecting an issue as a necessary step because:
+1. Motivations:
+   - This directly aligns with her goal of finding an issue to work on
+   - She can see a list of actual issues that need attention
+2. Information Processing Style:
+   - The page provides a comprehensive list of issues she can review
+   - Issues have titles and descriptions that she can read and understand
+   - She can gather information about each issue before making a decision
+3. Attitude toward Risk:
+   - She can take her time to review issues without committing
+   - She can read through descriptions to find something within her comfort level
+This step is clearly necessary for achieving her goal of finding an issue to work on, and the page provides enough structure for her to understand that selecting an issue is the next logical step, even if the actual selection process might be challenging for her.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets:
+1. Computer Self-Efficacy
+2. Information Processing Style
+3. Learning Style
+4. None of the Above (Information Overload)
+Why: ABI would struggle to read through the list effectively because:
+1. Computer Self-Efficacy:
+   - Technical terms like "BUG", "deploy", "GitLab" might be intimidating
+   - Various icons and labels whose meanings aren't explained
+   - No indication of technical difficulty level for each issue
+2. Information Processing Style:
+   - No clear organization or categorization of issues
+   - No way to filter specifically for newcomer-friendly issues
+   - Mixed technical and non-technical issues without clear distinction
+3. Learning Style:
+   - No guidance or process provided for how to select an appropriate issue
+   - No clear indicators or labels for beginner-friendly tasks
+   - No step-by-step approach to finding suitable issues
+4. None of the Above (Information Overload):
+   - Too many issues presented at once
+   - Multiple technical terms and concepts
+   - No clear way to identify which issues are appropriate for newcomers
+The page lacks the necessary structure and guidance that would help ABI confidently read through and understand which issues might be appropriate for her skill level.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
 3. Attitude Toward Risk
-Why: After scrolling, ABI will not feel confident she's making progress because:
-1. Her comprehensive information processing style isn't satisfied - scrolling reveals general project information (Features, Technologies, Code style) but nothing specific about where to find issues for newcomers
-2. The content after scrolling doesn't provide clear direction about where to find issues or confirm she's on the right path
-3. With her low computer self-efficacy, the lack of explicit information about issues would make her uncertain if she's looking in the right place
-4. Her risk-averse nature would make her hesitant to proceed without clear confirmation that she's on the right track
-5. The information shown after scrolling is about general project setup and technologies, which doesn't help her achieve her specific goal of finding newcomer issues
-The page content after scrolling doesn't provide the specific information ABI needs about issues, leaving her uncertain about her progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Answer: YES
+4. None of the Above (Lack of Clear Guidance)
+Why: After reading through the list, ABI would not feel confident she's making progress because:
+1. Information Processing Style:
+   - The information is not organized in a way that helps identify newcomer-friendly issues
+   - No clear categorization or filtering system for difficulty levels
+   - Mixed technical and non-technical issues make comprehensive understanding difficult
+2. Computer Self-Efficacy:
+   - Technical terminology ("GitLab", "deploy", "BUG") without explanations
+   - Unclear what skills are needed for each issue
+   - No indication of which issues match her technical ability level
+3. Attitude Toward Risk:
+   - No clear indicators of which issues are "safe" for beginners
+   - Uncertainty about technical requirements increases risk aversion
+   - Labels like "BUG" might seem intimidating
+4. None of the Above:
+   - No explicit labeling for newcomer-friendly issues
+   - Lack of guidance on how to choose an appropriate issue
+   - No clear indication of prerequisite knowledge needed for each issue
+After reading, ABI would still be uncertain about which issues are appropriate for her skill level and whether she's making progress toward finding a suitable issue for a newcomer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: NO
 Facets:
 1. Computer Self-Efficacy
-2. Learning Style
-3. Motivations
-Why: ABI will feel comfortable clicking the Issues icon because:
-1. The Issues section is clearly visible in the left sidebar with a recognizable icon and label
-2. It's a straightforward, process-oriented action that aligns with her learning style
-3. The interface presents a clear, familiar navigation pattern that doesn't require advanced technical knowledge
-4. The Issues icon has a number badge (showing count of issues), which provides additional confirmation that this is where issues are tracked
-5. The action directly relates to her goal of finding issues for newcomers
-6. The location and presentation of the Issues section follows standard GitHub conventions, which would be familiar to ABI even with her lower computer self-efficacy
-The clear labeling and conventional placement make this a safe, obvious choice for ABI to progress toward her goal without requiring any risky exploration or technical expertise.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+2. Attitude Toward Risk
+3. Learning Style
+4. None of the Above (Lack of Clear Guidance)
+Why: ABI would struggle to select/click on an issue because:
+1. Computer Self-Efficacy:
+   - No clear indication of which issues are suitable for her skill level
+   - Technical terms and labels ("BUG", "GitLab", etc.) may be intimidating
+   - Uncertainty about what clicking an issue will lead to
+2. Attitude Toward Risk:
+   - Without clear labeling for newcomer-friendly issues, clicking feels risky
+   - Fear of selecting something too technically complex
+   - Uncertainty about commitment level required for each issue
+3. Learning Style:
+   - No process-oriented guidance on how to choose an appropriate issue
+   - No clear indicators or instructions for identifying beginner-friendly tasks
+   - Lack of step-by-step approach to issue selection
+4. None of the Above:
+   - No explicit markers for newcomer-friendly issues
+   - No difficulty levels or prerequisite knowledge indicated
+   - No clear categorization to help guide selection
+The page lacks the necessary structure and guidance that would help ABI confidently select an appropriate issue for her skill level, making her hesitant to click on any specific issue.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets:
 1. Information Processing Style
 2. Computer Self-Efficacy
-3. Attitude Toward Risk
-4. None of the Above (Information Overload)
-Why: ABI will not feel confident she's making progress because:
-1. While she successfully reached the issues page, there's no clear indication which issues are suitable for newcomers
-2. Her comprehensive information processing style is overwhelmed by the many issues listed without clear categorization for newcomers
-3. With her low computer self-efficacy, the technical terms and labels (like "BUG", "devops") might be intimidating
-4. Her risk-averse nature would make her hesitant to proceed without clear guidance about which issues are appropriate for her skill level
-5. None of the Above: The page presents too much information at once without any filtering or organization specifically for newcomers, which can be overwhelming
-6. The search/filter functionality exists but without clear indication of how to use it to find newcomer-friendly issues
-While she's found the issues list, the lack of clear organization or labeling for newcomer-friendly issues means ABI won't be confident she's making progress toward her specific goal of finding issues for newcomers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets:
-1. Motivations
-2. Information Processing Style
-3. Attitude Toward Risk
-Why: ABI would consider selecting an issue as a necessary step because:
-1. Her motivation to find work for newcomers aligns with the need to select a specific issue
-2. Her comprehensive information processing style means she understands that reviewing and selecting an appropriate issue is a crucial step in the process
-3. Her risk-averse nature means she recognizes the importance of carefully choosing an issue that matches her capabilities
-4. The page shows a list of issues with descriptions and labels, which provides the kind of structured information she needs to make a decision
-Even though the page might be overwhelming, ABI would understand that selecting an issue is a logical and necessary step toward her goal of finding work as a newcomer. The presence of detailed issue descriptions and labels (like "BUG") provides the kind of information she needs to make an informed decision, aligning with her careful approach to decision-making.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Attitude Toward Risk
-4. None of the Above (Information Overload)
-Why: ABI will struggle to read through the list effectively because:
-1. Her comprehensive information processing style is challenged by:
-   - No clear categorization or labeling for newcomer-friendly issues
-   - Mixed technical terms and labels without explanation (like "BUG", "devops")
-   - No guidance on which issues are appropriate for beginners
-2. Her low computer self-efficacy means:
-   - Technical terminology in issue titles may be intimidating
-   - Uncertainty about understanding the technical requirements of each issue
-3. Her risk-averse nature is challenged because:
-   - No clear indication of issue difficulty levels
-   - Uncertainty about which issues are safe for newcomers to attempt
-4. None of the Above:
-   - The page presents too many issues at once without proper organization
-   - No filtering system specifically for newcomer-friendly issues
-   - Lack of clear indicators for issue complexity or prerequisites
-While the list is readable, the lack of newcomer-friendly organization and guidance would make ABI uncertain about how to effectively process and evaluate the issues.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Attitude Toward Risk
-4. None of the Above (Information Overload)
-Why: After reading through the list, ABI won't feel confident she's making progress because:
-1. Information Processing Style issues:
-   - No clear organization or categorization of issues by difficulty level
-   - Can't comprehensively understand which issues are appropriate for newcomers
-   - Mixed technical and non-technical descriptions without clear context
-2. Computer Self-Efficacy concerns:
-   - Technical terms and labels (like "BUG", "devops") without explanation
-   - Uncertainty about understanding the technical requirements
-   - No indication of required skill levels
-3. Risk-averse nature is challenged:
-   - No clear indicators of which issues are "safe" for newcomers
-   - Uncertainty about potential complications or prerequisites
-   - No way to assess the risk level of taking on specific issues
-4. None of the Above:
-   - Information overload with too many issues displayed at once
-   - Lack of newcomer-friendly filters or tags
-   - No clear guidance on how to evaluate issue difficulty
-Even after reading, ABI won't be confident she's found an appropriate issue because the page lacks the structured, newcomer-friendly information she needs to make an informed decision.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Computer Self-Efficacy
-2. Attitude Toward Risk
-3. Information Processing Style
-4. None of the Above (Lack of Guidance)
-Why: ABI will struggle to select/click an appropriate issue because:
-1. Computer Self-Efficacy:
-   - Technical terminology in issue titles may be intimidating
-   - No clear indication of skill level requirements
-   - Uncertainty about understanding the technical requirements
-2. Attitude Toward Risk:
-   - Fear of selecting an issue that's too complex
-   - No clear indicators of which issues are safe for newcomers
-   - Hesitant to click without knowing if it's an appropriate choice
-3. Information Processing Style:
-   - Cannot form a complete understanding of which issue is suitable
-   - Lack of comprehensive information about issue difficulty levels
-   - No clear categorization for newcomer-friendly issues
-4. None of the Above:
-   - No guidance or indicators for newcomer-appropriate issues
-   - Missing clear labels or tags for beginner-friendly tasks
-   - No filtering system to help identify suitable issues
-Without clear indicators of which issues are appropriate for newcomers, ABI would be hesitant to click on any specific issue, fearing she might choose one beyond her capabilities.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets:
-1. Information Processing Style
-2. Computer Self-Efficacy
-3. Attitude Toward Risk
+3. Learning Style
 4. None of the Above (Lack of Essential Information)
-Why: After clicking an issue, ABI won't feel confident she's made progress because:
+Why: After clicking on an issue, ABI would not feel confident she's making progress because:
 1. Information Processing Style:
-   - The issue details page lacks comprehensive information about difficulty level
-   - No clear context about whether this is suitable for newcomers
-   - The description "test test test" is too vague for her thorough information needs
+   - The issue details page lacks comprehensive information about:
+     * Required skills or experience level
+     * How to get started
+     * Whether it's suitable for newcomers
+   - The description "test test test" is too vague for her thorough information processing needs
 2. Computer Self-Efficacy:
-   - Technical interface elements without clear explanation
-   - Unclear what various buttons and options do (like Child items, Linked items)
-   - No indication of required technical skills or prerequisites
-3. Attitude Toward Risk:
-   - Uncertainty about whether this issue is appropriate for her skill level
-   - No clear guidance about what would be required to complete this issue
-   - Multiple unfamiliar options and features create anxiety about next steps
+   - Technical interface elements (Child items, Linked items, Activity) without clear explanation
+   - No indication if this issue matches her technical abilities
+   - Unfamiliar icons and options in the comment editor
+3. Learning Style:
+   - No step-by-step guidance on how to proceed
+   - No clear process for determining if this issue is appropriate
+   - Lack of structured information about getting started
 4. None of the Above:
    - Missing crucial information about:
-     * Required skills
      * Difficulty level
-     * Expected time commitment
-     * Where to start
+     * Prerequisites
      * Whether it's newcomer-friendly
-The page doesn't provide the structured, detailed information ABI needs to confirm she's selected an appropriate issue for a newcomer.</t>
+   - The minimal description doesn't provide enough context
+The page doesn't provide the detailed information ABI needs to confirm if this is an appropriate issue for a newcomer, leaving her uncertain about her progress.</t>
         </is>
       </c>
     </row>
